--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyProjects\abbr_and_symb_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E1E25-2484-4DE5-93E5-7F488C25EEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC4D9A7-F6DF-4606-A3B3-E06EABF103F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="90" windowWidth="15375" windowHeight="7785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Единицы измерения" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="557">
   <si>
     <t>м</t>
   </si>
@@ -1668,6 +1668,48 @@
   </si>
   <si>
     <t>Предл.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидационный </t>
+  </si>
+  <si>
+    <t>предложения</t>
+  </si>
+  <si>
+    <t>слова</t>
+  </si>
+  <si>
+    <t>Без ед. из.</t>
+  </si>
+  <si>
+    <t>Датасет (предложения/слова)</t>
+  </si>
+  <si>
+    <t>51030/80583</t>
+  </si>
+  <si>
+    <t>5670/6500</t>
+  </si>
+  <si>
+    <t>56700/87083</t>
+  </si>
+  <si>
+    <t>5670/6943</t>
+  </si>
+  <si>
+    <t>630/852</t>
+  </si>
+  <si>
+    <t>6300/7795</t>
+  </si>
+  <si>
+    <t>6300/10074</t>
+  </si>
+  <si>
+    <t>700/949</t>
+  </si>
+  <si>
+    <t>7000/11023</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1721,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,6 +1734,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1729,7 +1778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1748,22 +1797,28 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11072,8 +11127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21628B12-5C47-4AD4-9C6F-B35CE98809B1}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K27" sqref="K26:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11085,168 +11140,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>0.92090000000000005</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>0.93520000000000003</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>0.79910000000000003</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>0.77129999999999999</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>0.7006</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>0.10208333333333333</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>0.53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>0.94810000000000005</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>0.76990000000000003</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.96079999999999999</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>0.78649999999999998</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.8296</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>0.65339999999999998</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>0.13541666666666666</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>0.93230000000000002</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>0.76970000000000005</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0.94550000000000001</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>0.77700000000000002</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>0.79759999999999998</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>0.71179999999999999</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.90763888888888888</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>0.92</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>0.94589999999999996</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>0.95709999999999995</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0.87429999999999997</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>0.83350000000000002</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>0.79249999999999998</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0.5541666666666667</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="13"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -11273,94 +11328,94 @@
       <c r="H8" s="6">
         <v>0.14027777777777778</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="13"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I12" s="13"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="13"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="13"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="13"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="13"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="13"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="13"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="13"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="13"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" s="13"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="13"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="13"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="13"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="13"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="13"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="13"/>
+      <c r="I37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11425,33 +11480,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5973CE8E-1C43-4081-9187-1D1BE3CC56CA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>536</v>
       </c>
@@ -11461,38 +11535,91 @@
       <c r="D2" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B3" s="1">
-        <f>6300-C3</f>
+        <v>51030</v>
+      </c>
+      <c r="C3" s="1">
+        <f>63000-D3 - B3</f>
         <v>5670</v>
       </c>
-      <c r="C3" s="1">
-        <v>630</v>
-      </c>
       <c r="D3" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6300</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B4" s="1">
+        <f>6300-C4</f>
+        <v>5670</v>
+      </c>
+      <c r="C4" s="1">
+        <v>630</v>
+      </c>
+      <c r="D4" s="1">
+        <v>700</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="J4" s="15">
         <v>51030</v>
       </c>
-      <c r="C4" s="1">
-        <f>63000-D4 - B4</f>
+      <c r="K4" s="15">
+        <v>80583</v>
+      </c>
+      <c r="L4" s="15">
         <v>5670</v>
       </c>
-      <c r="D4" s="1">
+      <c r="M4" s="15">
+        <v>6943</v>
+      </c>
+      <c r="N4" s="15">
         <v>6300</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O4" s="15">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>541</v>
       </c>
@@ -11501,19 +11628,169 @@
         <v>56700</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:D5" si="0">SUM(C3:C4)</f>
+        <f ca="1">SUM(C4:C6)</f>
         <v>6300</v>
       </c>
       <c r="D5" s="1">
+        <f ca="1">SUM(D4:D6)</f>
+        <v>7000</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="J5" s="15">
+        <v>5670</v>
+      </c>
+      <c r="K5" s="15">
+        <v>6500</v>
+      </c>
+      <c r="L5" s="15">
+        <v>630</v>
+      </c>
+      <c r="M5" s="15">
+        <v>852</v>
+      </c>
+      <c r="N5" s="15">
+        <v>700</v>
+      </c>
+      <c r="O5" s="15">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="J6" s="15">
+        <f>SUM(J4:J5)</f>
+        <v>56700</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:O6" si="0">SUM(K4:K5)</f>
+        <v>87083</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="M6" s="15">
+        <f t="shared" si="0"/>
+        <v>7795</v>
+      </c>
+      <c r="N6" s="15">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
+      <c r="O6" s="15">
+        <f t="shared" si="0"/>
+        <v>11023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <f>K4/J4</f>
+        <v>1.5791299235743681</v>
+      </c>
+      <c r="M9" s="1">
+        <f>M4/L4</f>
+        <v>1.2245149911816577</v>
+      </c>
+      <c r="O9" s="1">
+        <f>O4/N4</f>
+        <v>1.5990476190476191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <f>K5/J5</f>
+        <v>1.1463844797178131</v>
+      </c>
+      <c r="M10" s="1">
+        <f>M5/L5</f>
+        <v>1.3523809523809525</v>
+      </c>
+      <c r="O10" s="1">
+        <f>O5/N5</f>
+        <v>1.3557142857142856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>556</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>